--- a/Documentacao/ProductBacklog.xlsx
+++ b/Documentacao/ProductBacklog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Renan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Desktop\Repositorios Git\magna-monitoring-system\Documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B76BF6-16A2-4289-9BB7-D21866FEF2EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9515108-A4B2-419E-9889-310FA902933D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{8C7B7C96-53AD-4815-A5C2-F64778F56C73}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{8C7B7C96-53AD-4815-A5C2-F64778F56C73}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -158,7 +158,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,13 +222,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -239,18 +232,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0073D2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF77C6FC"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -311,28 +304,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF0073D2"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0073D2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF9C0006"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0073D2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF0073D2"/>
       </left>
@@ -384,13 +355,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF0073D2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF0073D2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0073D2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF9C0006"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -408,16 +401,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -426,24 +419,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -453,13 +437,25 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -468,14 +464,250 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="9">
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFFFFF"/>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF77C6FC"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FF0073D2"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF0073D2"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C5700"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color rgb="FF0073D2"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF0073D2"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF0073D2"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF0073D2"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF0073D2"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF0073D2"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF0073D2"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF0073D2"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF0073D2"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF0073D2"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF0073D2"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF0073D2"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF0073D2"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF0073D2"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF0073D2"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF0073D2"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF0073D2"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF0073D2"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -489,6 +721,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF77C6FC"/>
       <color rgb="FF0073D2"/>
       <color rgb="FF9C0006"/>
       <color rgb="FF9C5700"/>
@@ -509,6 +742,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8639469B-8E9E-4BE2-801F-6551A165B012}" name="Tabela1" displayName="Tabela1" ref="A1:F12" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="7">
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{52E61C17-8762-4D96-957A-344D87308A7F}" name="ID " dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{391F249F-479C-4C7C-9810-97830D897CE1}" name="ID Associada" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{161E9D20-CB42-43B9-A8CE-FF27139571A9}" name="Titulo" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{225ED618-3FCD-42FF-AA90-C1DEE63482AE}" name="Descrição dos Requisitos" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{2CE4A59C-526E-4932-B053-F35593D76436}" name="Dificuldade" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{F0FD5D25-9B36-43A7-A377-FF84272E3AE2}" name="Classificação" dataDxfId="1" dataCellStyle="Neutro"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -810,42 +1057,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13DDAFA-B77F-4BCD-8BEE-4F13A0D09A37}">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F12" sqref="A1:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" customWidth="1"/>
-    <col min="4" max="4" width="46.85546875" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -853,7 +1100,7 @@
       <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="16" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="7">
@@ -863,7 +1110,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
         <v>10</v>
@@ -871,7 +1118,7 @@
       <c r="C3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="17" t="s">
         <v>38</v>
       </c>
       <c r="E3" s="9">
@@ -879,7 +1126,7 @@
       </c>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
         <v>11</v>
@@ -887,7 +1134,7 @@
       <c r="C4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="9">
@@ -897,7 +1144,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
         <v>12</v>
@@ -905,7 +1152,7 @@
       <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="17" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="9">
@@ -915,7 +1162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="6" t="s">
         <v>36</v>
@@ -923,7 +1170,7 @@
       <c r="C6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="17" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="9">
@@ -933,7 +1180,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>2</v>
       </c>
@@ -941,7 +1188,7 @@
       <c r="C7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="16" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="12">
@@ -951,7 +1198,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
         <v>20</v>
@@ -959,7 +1206,7 @@
       <c r="C8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="17" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="9">
@@ -969,7 +1216,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="57" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
         <v>25</v>
@@ -977,7 +1224,7 @@
       <c r="C9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="17" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="13">
@@ -995,7 +1242,7 @@
       <c r="C10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="17" t="s">
         <v>29</v>
       </c>
       <c r="E10" s="13">
@@ -1005,7 +1252,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="57" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6" t="s">
         <v>30</v>
@@ -1013,7 +1260,7 @@
       <c r="C11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="18" t="s">
         <v>32</v>
       </c>
       <c r="E11" s="13">
@@ -1026,21 +1273,21 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+    <row r="12" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="22">
         <v>3</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="5" t="s">
+      <c r="B12" s="23"/>
+      <c r="C12" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="25">
         <v>3</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G12" s="4"/>
@@ -1049,7 +1296,7 @@
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="17"/>
+      <c r="D13" s="15"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
@@ -1057,28 +1304,28 @@
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="17"/>
+      <c r="D14" s="15"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="17"/>
+      <c r="D15" s="15"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="17"/>
+      <c r="D16" s="15"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="17"/>
+      <c r="D17" s="15"/>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1159,10 +1406,13 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:F7">
-    <sortCondition sortBy="cellColor" ref="F2:F7" dxfId="1"/>
+    <sortCondition sortBy="cellColor" ref="F2:F7" dxfId="8"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>